--- a/Code/Results/Cases/Case_5_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.70632737786849</v>
+        <v>1.606891053220522</v>
       </c>
       <c r="C2">
-        <v>0.3261732212376103</v>
+        <v>0.1429500831398514</v>
       </c>
       <c r="D2">
-        <v>0.06106072403214569</v>
+        <v>0.1249724091649256</v>
       </c>
       <c r="E2">
-        <v>0.04453580192205564</v>
+        <v>0.1209660387166416</v>
       </c>
       <c r="F2">
-        <v>0.8807281667008482</v>
+        <v>1.675643970990237</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.050852616566603</v>
+        <v>0.1481101581286079</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2761423571436836</v>
+        <v>0.3160357423339661</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8162645912379034</v>
+        <v>1.454331322397671</v>
       </c>
       <c r="O2">
-        <v>2.295018950703991</v>
+        <v>4.329673273218418</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.360335518000113</v>
+        <v>1.510906854829216</v>
       </c>
       <c r="C3">
-        <v>0.2929059077667659</v>
+        <v>0.1320061420179144</v>
       </c>
       <c r="D3">
-        <v>0.05709662375003433</v>
+        <v>0.1243874862339993</v>
       </c>
       <c r="E3">
-        <v>0.04434066795093017</v>
+        <v>0.1215383176541014</v>
       </c>
       <c r="F3">
-        <v>0.8404353605227328</v>
+        <v>1.678269952518939</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05250958320005239</v>
+        <v>0.149362862798716</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2465581420763954</v>
+        <v>0.3092004679037927</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8448913176557724</v>
+        <v>1.467457292950058</v>
       </c>
       <c r="O3">
-        <v>2.194715573107715</v>
+        <v>4.339556449032727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.148772830220082</v>
+        <v>1.452408512553063</v>
       </c>
       <c r="C4">
-        <v>0.272446499180802</v>
+        <v>0.1252392689791151</v>
       </c>
       <c r="D4">
-        <v>0.05470390541818659</v>
+        <v>0.1240625125243611</v>
       </c>
       <c r="E4">
-        <v>0.04427219177390462</v>
+        <v>0.1219274526726313</v>
       </c>
       <c r="F4">
-        <v>0.8173587553006172</v>
+        <v>1.680778051694617</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05359841179673808</v>
+        <v>0.1501807542708793</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.228569947552586</v>
+        <v>0.3051170192273389</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8635811073341628</v>
+        <v>1.476064786199338</v>
       </c>
       <c r="O4">
-        <v>2.137892605878847</v>
+        <v>4.348080734095419</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.062745674344455</v>
+        <v>1.428681263705585</v>
       </c>
       <c r="C5">
-        <v>0.2640986010753323</v>
+        <v>0.1224699808856116</v>
       </c>
       <c r="D5">
-        <v>0.05373877656536052</v>
+        <v>0.1239387148679256</v>
       </c>
       <c r="E5">
-        <v>0.04425686022230302</v>
+        <v>0.1220955386506208</v>
       </c>
       <c r="F5">
-        <v>0.8083512366173196</v>
+        <v>1.682025394675051</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05405969215072659</v>
+        <v>0.1505263150354246</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2212803473006204</v>
+        <v>0.3034816613591573</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8714694821120403</v>
+        <v>1.479710325444593</v>
       </c>
       <c r="O5">
-        <v>2.115870124652872</v>
+        <v>4.352171853911216</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.048471221187867</v>
+        <v>1.424748140946463</v>
       </c>
       <c r="C6">
-        <v>0.2627117423495235</v>
+        <v>0.1220094384895276</v>
       </c>
       <c r="D6">
-        <v>0.05357910431168733</v>
+        <v>0.1239186808517232</v>
       </c>
       <c r="E6">
-        <v>0.04425506428642301</v>
+        <v>0.1221240240951449</v>
       </c>
       <c r="F6">
-        <v>0.806878867258277</v>
+        <v>1.682246121894778</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05413733771525209</v>
+        <v>0.1505844361340536</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2200722714144376</v>
+        <v>0.3032118482649935</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8727955595198438</v>
+        <v>1.480323997060601</v>
       </c>
       <c r="O6">
-        <v>2.112279935367496</v>
+        <v>4.352888466052889</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.147611927274227</v>
+        <v>1.452088065832015</v>
       </c>
       <c r="C7">
-        <v>0.2723339618978144</v>
+        <v>0.1252019686959045</v>
       </c>
       <c r="D7">
-        <v>0.0546908497507772</v>
+        <v>0.1240608079437635</v>
       </c>
       <c r="E7">
-        <v>0.04427193453175704</v>
+        <v>0.1219296810094086</v>
       </c>
       <c r="F7">
-        <v>0.8172356998998893</v>
+        <v>1.680793961639083</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05360456213280429</v>
+        <v>0.1501853649558669</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2284714772325032</v>
+        <v>0.3050948478846749</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8636864007298684</v>
+        <v>1.476113392675941</v>
       </c>
       <c r="O7">
-        <v>2.137591097012546</v>
+        <v>4.348133408754222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.586825796994958</v>
+        <v>1.573706052430623</v>
       </c>
       <c r="C8">
-        <v>0.3147081555777476</v>
+        <v>0.1391865047557275</v>
       </c>
       <c r="D8">
-        <v>0.05968505918808376</v>
+        <v>0.1247636585373897</v>
       </c>
       <c r="E8">
-        <v>0.04445765736202922</v>
+        <v>0.1211555348524183</v>
       </c>
       <c r="F8">
-        <v>0.8664764507868199</v>
+        <v>1.676363514665837</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05140886942231049</v>
+        <v>0.1485319842800124</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2659027698817624</v>
+        <v>0.313655486449619</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8258993496579095</v>
+        <v>1.458743455477588</v>
       </c>
       <c r="O8">
-        <v>2.259405718649901</v>
+        <v>4.332571142067025</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.456783573323321</v>
+        <v>1.81560421863685</v>
       </c>
       <c r="C9">
-        <v>0.3976514701120664</v>
+        <v>0.1662299329407801</v>
       </c>
       <c r="D9">
-        <v>0.06982820189055161</v>
+        <v>0.1264115142573132</v>
       </c>
       <c r="E9">
-        <v>0.0452452430277539</v>
+        <v>0.1199362711098306</v>
       </c>
       <c r="F9">
-        <v>0.9772849686897729</v>
+        <v>1.674783178183162</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04768847085346728</v>
+        <v>0.1456758152411375</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3408873417926657</v>
+        <v>0.3313372079275467</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7609957253821378</v>
+        <v>1.429025804156133</v>
       </c>
       <c r="O9">
-        <v>2.539177796200221</v>
+        <v>4.321553114353975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.103807567936371</v>
+        <v>1.995345918229589</v>
       </c>
       <c r="C10">
-        <v>0.4586693171428635</v>
+        <v>0.1858616385541723</v>
       </c>
       <c r="D10">
-        <v>0.07752709229968247</v>
+        <v>0.1277846476447593</v>
       </c>
       <c r="E10">
-        <v>0.04610569376342966</v>
+        <v>0.1192217142890968</v>
       </c>
       <c r="F10">
-        <v>1.068941232088633</v>
+        <v>1.67795867846921</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04533892598659328</v>
+        <v>0.1438120303164716</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3972160663600448</v>
+        <v>0.3448670973745322</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7194571656636839</v>
+        <v>1.409835277288416</v>
       </c>
       <c r="O10">
-        <v>2.774256347320716</v>
+        <v>4.325369774305301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.400489712216256</v>
+        <v>2.077542605579595</v>
       </c>
       <c r="C11">
-        <v>0.4864875108530953</v>
+        <v>0.1947401106862117</v>
       </c>
       <c r="D11">
-        <v>0.08109118775502111</v>
+        <v>0.1284442136094555</v>
       </c>
       <c r="E11">
-        <v>0.04656395220088427</v>
+        <v>0.1189358017912561</v>
       </c>
       <c r="F11">
-        <v>1.11323605716386</v>
+        <v>1.680345898222086</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04435980208629253</v>
+        <v>0.1430149403843348</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4231760572106538</v>
+        <v>0.3511380776938609</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7020237340369064</v>
+        <v>1.401677819984691</v>
       </c>
       <c r="O11">
-        <v>2.888714277279803</v>
+        <v>4.329698269913195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.513228540725265</v>
+        <v>2.108729037880778</v>
       </c>
       <c r="C12">
-        <v>0.4970340420310606</v>
+        <v>0.1980945399566281</v>
       </c>
       <c r="D12">
-        <v>0.08245042216816501</v>
+        <v>0.1286989594349777</v>
       </c>
       <c r="E12">
-        <v>0.046747594785705</v>
+        <v>0.118833146769008</v>
       </c>
       <c r="F12">
-        <v>1.130416772149431</v>
+        <v>1.681385461308736</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0440025104131081</v>
+        <v>0.1427203910824453</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4330605548946238</v>
+        <v>0.3535293053748632</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6956441979074128</v>
+        <v>1.398671050879187</v>
       </c>
       <c r="O12">
-        <v>2.933237088842532</v>
+        <v>4.331710474109286</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.48892988465667</v>
+        <v>2.102009825291248</v>
       </c>
       <c r="C13">
-        <v>0.4947620456210302</v>
+        <v>0.1973724466967894</v>
       </c>
       <c r="D13">
-        <v>0.08215724857329576</v>
+        <v>0.1286438743862419</v>
       </c>
       <c r="E13">
-        <v>0.046707586102956</v>
+        <v>0.1188550059240416</v>
       </c>
       <c r="F13">
-        <v>1.126697927896913</v>
+        <v>1.681155542749977</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04407885026325964</v>
+        <v>0.142783503372792</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4309292531534368</v>
+        <v>0.3530135784903052</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6970080690870617</v>
+        <v>1.399314953254731</v>
       </c>
       <c r="O13">
-        <v>2.923594166118534</v>
+        <v>4.331260511081894</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.409756626589399</v>
+        <v>2.080107132670037</v>
       </c>
       <c r="C14">
-        <v>0.4873549101206436</v>
+        <v>0.1950162359712238</v>
       </c>
       <c r="D14">
-        <v>0.0812028164287355</v>
+        <v>0.1284650720677547</v>
       </c>
       <c r="E14">
-        <v>0.04657885498385816</v>
+        <v>0.1189272438760582</v>
       </c>
       <c r="F14">
-        <v>1.114641163390502</v>
+        <v>1.680428706466515</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04433013381529882</v>
+        <v>0.14299056154689</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4239881438613793</v>
+        <v>0.3513344747983211</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7014943634210979</v>
+        <v>1.401428802356286</v>
       </c>
       <c r="O14">
-        <v>2.89235295239348</v>
+        <v>4.329856335853435</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.361313417975396</v>
+        <v>2.066698907831267</v>
       </c>
       <c r="C15">
-        <v>0.4828195520723568</v>
+        <v>0.1935719870141384</v>
       </c>
       <c r="D15">
-        <v>0.08061946953723265</v>
+        <v>0.1283561981993415</v>
       </c>
       <c r="E15">
-        <v>0.0465013354876298</v>
+        <v>0.1189722223543992</v>
       </c>
       <c r="F15">
-        <v>1.107310113072856</v>
+        <v>1.680001154694551</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04448582590710437</v>
+        <v>0.1431183399961871</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4197437257681287</v>
+        <v>0.3503081249893256</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7042716402141025</v>
+        <v>1.402734310861781</v>
       </c>
       <c r="O15">
-        <v>2.873373548777948</v>
+        <v>4.329044836017545</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.084470463148932</v>
+        <v>1.989982705617763</v>
       </c>
       <c r="C16">
-        <v>0.4568528606521909</v>
+        <v>0.1852803472305595</v>
       </c>
       <c r="D16">
-        <v>0.07729547291729233</v>
+        <v>0.1277422428104629</v>
       </c>
       <c r="E16">
-        <v>0.04607713229617794</v>
+        <v>0.1192411857264855</v>
       </c>
       <c r="F16">
-        <v>1.06610157323459</v>
+        <v>1.677821638668462</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04540476788699443</v>
+        <v>0.1438651427259945</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3955267560671416</v>
+        <v>0.3444595978459404</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7206269033169406</v>
+        <v>1.410379902070765</v>
       </c>
       <c r="O16">
-        <v>2.766935838398865</v>
+        <v>4.325139088433218</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.915274745674765</v>
+        <v>1.943029061000118</v>
       </c>
       <c r="C17">
-        <v>0.4409412090008686</v>
+        <v>0.180180235888912</v>
       </c>
       <c r="D17">
-        <v>0.07527262507139909</v>
+        <v>0.127374517268521</v>
       </c>
       <c r="E17">
-        <v>0.04583436009529507</v>
+        <v>0.1194162008901056</v>
       </c>
       <c r="F17">
-        <v>1.041510331320183</v>
+        <v>1.676726030552118</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04599188475453886</v>
+        <v>0.1443362764878291</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3807603657598264</v>
+        <v>0.340901354057479</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.73104308290322</v>
+        <v>1.415216810345854</v>
       </c>
       <c r="O17">
-        <v>2.703633634682831</v>
+        <v>4.323407218344357</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.81817532705918</v>
+        <v>1.91606326184592</v>
       </c>
       <c r="C18">
-        <v>0.4317947408313501</v>
+        <v>0.1772418936918996</v>
       </c>
       <c r="D18">
-        <v>0.07411491157461114</v>
+        <v>0.1271663004906998</v>
       </c>
       <c r="E18">
-        <v>0.04570098294024305</v>
+        <v>0.1195205501910994</v>
       </c>
       <c r="F18">
-        <v>1.027608676981686</v>
+        <v>1.67618459295997</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04633798424443469</v>
+        <v>0.1446120379054854</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3722983643129396</v>
+        <v>0.3388656900117866</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.737171112350012</v>
+        <v>1.418052751354878</v>
       </c>
       <c r="O18">
-        <v>2.667925312045782</v>
+        <v>4.322655070123517</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.785334905690831</v>
+        <v>1.906940146557019</v>
       </c>
       <c r="C19">
-        <v>0.4286987419089883</v>
+        <v>0.1762461861647182</v>
       </c>
       <c r="D19">
-        <v>0.07372390115121163</v>
+        <v>0.127096367987491</v>
       </c>
       <c r="E19">
-        <v>0.04565688405139667</v>
+        <v>0.1195565144640014</v>
       </c>
       <c r="F19">
-        <v>1.022942502504122</v>
+        <v>1.676016509872767</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0464565940965489</v>
+        <v>0.1447062267853045</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3694384734370146</v>
+        <v>0.3381783336393909</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7392691278497381</v>
+        <v>1.41902220703949</v>
       </c>
       <c r="O19">
-        <v>2.655952669878388</v>
+        <v>4.322442299007633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.93326303157005</v>
+        <v>1.948023157047317</v>
       </c>
       <c r="C20">
-        <v>0.4426344377046405</v>
+        <v>0.1807236590567527</v>
       </c>
       <c r="D20">
-        <v>0.07548735809359641</v>
+        <v>0.1274133221408107</v>
       </c>
       <c r="E20">
-        <v>0.0458595523198646</v>
+        <v>0.1193971889301633</v>
       </c>
       <c r="F20">
-        <v>1.044102771437167</v>
+        <v>1.6768334768242</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04592851113808649</v>
+        <v>0.1442856290688219</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3823290003594764</v>
+        <v>0.3412790037225335</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7299200094875715</v>
+        <v>1.414696337119743</v>
       </c>
       <c r="O20">
-        <v>2.710298975159986</v>
+        <v>4.323566325699545</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.433000646541302</v>
+        <v>2.086538860493818</v>
       </c>
       <c r="C21">
-        <v>0.489530198649561</v>
+        <v>0.1957085212566199</v>
       </c>
       <c r="D21">
-        <v>0.08148289022349786</v>
+        <v>0.1285174557291953</v>
       </c>
       <c r="E21">
-        <v>0.04661638790004474</v>
+        <v>0.1189058735988304</v>
       </c>
       <c r="F21">
-        <v>1.118171196924862</v>
+        <v>1.680638516279686</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04425595501735025</v>
+        <v>0.1429295457132493</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4260254021198904</v>
+        <v>0.3518272205487989</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7001705033477137</v>
+        <v>1.400805680704742</v>
       </c>
       <c r="O21">
-        <v>2.901496402212189</v>
+        <v>4.330258647778152</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.761919790655213</v>
+        <v>2.177417753308873</v>
       </c>
       <c r="C22">
-        <v>0.5202534079985526</v>
+        <v>0.2054572969294952</v>
       </c>
       <c r="D22">
-        <v>0.08545757084976202</v>
+        <v>0.1292680947175313</v>
       </c>
       <c r="E22">
-        <v>0.0471702098104867</v>
+        <v>0.11861748550794</v>
       </c>
       <c r="F22">
-        <v>1.168970167226433</v>
+        <v>1.683915572558959</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.043241722639209</v>
+        <v>0.1420857632085628</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4549013447785484</v>
+        <v>0.3588174439680643</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6820282998025462</v>
+        <v>1.392206931780059</v>
       </c>
       <c r="O22">
-        <v>3.033384801009106</v>
+        <v>4.336807314771505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.586138870835327</v>
+        <v>2.12888242950271</v>
       </c>
       <c r="C23">
-        <v>0.503847782983712</v>
+        <v>0.2002583361715438</v>
       </c>
       <c r="D23">
-        <v>0.08333081717091773</v>
+        <v>0.1288648217406489</v>
       </c>
       <c r="E23">
-        <v>0.04686903502519613</v>
+        <v>0.1187684151412896</v>
       </c>
       <c r="F23">
-        <v>1.141627331271465</v>
+        <v>1.682094231954196</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04377561661917184</v>
+        <v>0.1425322197324874</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4394586172827672</v>
+        <v>0.3550778668584798</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6915879874597834</v>
+        <v>1.396752370912438</v>
       </c>
       <c r="O23">
-        <v>2.9623247465004</v>
+        <v>4.333113059959146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.925129991288657</v>
+        <v>1.945765237391299</v>
       </c>
       <c r="C24">
-        <v>0.4418689250658474</v>
+        <v>0.180477996806701</v>
       </c>
       <c r="D24">
-        <v>0.07539026099788515</v>
+        <v>0.1273957685084497</v>
       </c>
       <c r="E24">
-        <v>0.04584814365390066</v>
+        <v>0.1194057726154192</v>
       </c>
       <c r="F24">
-        <v>1.042929996110018</v>
+        <v>1.676784624871615</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04595713573690041</v>
+        <v>0.1443085115019311</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.381619735761447</v>
+        <v>0.3411082370938061</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7304273169476474</v>
+        <v>1.414931471307661</v>
       </c>
       <c r="O24">
-        <v>2.707283448618938</v>
+        <v>4.323493634706921</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.220254105858885</v>
+        <v>1.74980567256415</v>
       </c>
       <c r="C25">
-        <v>0.3752124779406074</v>
+        <v>0.158955224198877</v>
       </c>
       <c r="D25">
-        <v>0.06704346077254542</v>
+        <v>0.1259370616267645</v>
       </c>
       <c r="E25">
-        <v>0.04498449536302473</v>
+        <v>0.1202342195758757</v>
       </c>
       <c r="F25">
-        <v>0.9456283918023729</v>
+        <v>1.674449407329192</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04862958825612118</v>
+        <v>0.1464072261233316</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3204056328627729</v>
+        <v>0.3264587194022539</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7775158515995599</v>
+        <v>1.436600684554776</v>
       </c>
       <c r="O25">
-        <v>2.458658172976897</v>
+        <v>4.322443730337682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.606891053220522</v>
+        <v>2.706327377868377</v>
       </c>
       <c r="C2">
-        <v>0.1429500831398514</v>
+        <v>0.3261732212371271</v>
       </c>
       <c r="D2">
-        <v>0.1249724091649256</v>
+        <v>0.06106072403202489</v>
       </c>
       <c r="E2">
-        <v>0.1209660387166416</v>
+        <v>0.04453580192205209</v>
       </c>
       <c r="F2">
-        <v>1.675643970990237</v>
+        <v>0.8807281667008482</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1481101581286079</v>
+        <v>0.05085261656648399</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3160357423339661</v>
+        <v>0.2761423571436978</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.454331322397671</v>
+        <v>0.8162645912379176</v>
       </c>
       <c r="O2">
-        <v>4.329673273218418</v>
+        <v>2.295018950704019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.510906854829216</v>
+        <v>2.360335517999999</v>
       </c>
       <c r="C3">
-        <v>0.1320061420179144</v>
+        <v>0.2929059077668938</v>
       </c>
       <c r="D3">
-        <v>0.1243874862339993</v>
+        <v>0.05709662375004143</v>
       </c>
       <c r="E3">
-        <v>0.1215383176541014</v>
+        <v>0.04434066795092839</v>
       </c>
       <c r="F3">
-        <v>1.678269952518939</v>
+        <v>0.8404353605227328</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.149362862798716</v>
+        <v>0.05250958320004706</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3092004679037927</v>
+        <v>0.2465581420763812</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.467457292950058</v>
+        <v>0.8448913176557795</v>
       </c>
       <c r="O3">
-        <v>4.339556449032727</v>
+        <v>2.194715573107686</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.452408512553063</v>
+        <v>2.148772830220139</v>
       </c>
       <c r="C4">
-        <v>0.1252392689791151</v>
+        <v>0.2724464991807736</v>
       </c>
       <c r="D4">
-        <v>0.1240625125243611</v>
+        <v>0.05470390541817949</v>
       </c>
       <c r="E4">
-        <v>0.1219274526726313</v>
+        <v>0.04427219177388331</v>
       </c>
       <c r="F4">
-        <v>1.680778051694617</v>
+        <v>0.8173587553006243</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1501807542708793</v>
+        <v>0.05359841179684643</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3051170192273389</v>
+        <v>0.2285699475526002</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.476064786199338</v>
+        <v>0.8635811073341557</v>
       </c>
       <c r="O4">
-        <v>4.348080734095419</v>
+        <v>2.13789260587896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.428681263705585</v>
+        <v>2.062745674344285</v>
       </c>
       <c r="C5">
-        <v>0.1224699808856116</v>
+        <v>0.2640986010755029</v>
       </c>
       <c r="D5">
-        <v>0.1239387148679256</v>
+        <v>0.05373877656537474</v>
       </c>
       <c r="E5">
-        <v>0.1220955386506208</v>
+        <v>0.04425686022231901</v>
       </c>
       <c r="F5">
-        <v>1.682025394675051</v>
+        <v>0.8083512366173267</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1505263150354246</v>
+        <v>0.05405969215072659</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3034816613591573</v>
+        <v>0.221280347300592</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.479710325444593</v>
+        <v>0.8714694821119977</v>
       </c>
       <c r="O5">
-        <v>4.352171853911216</v>
+        <v>2.115870124652844</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.424748140946463</v>
+        <v>2.048471221187981</v>
       </c>
       <c r="C6">
-        <v>0.1220094384895276</v>
+        <v>0.2627117423495093</v>
       </c>
       <c r="D6">
-        <v>0.1239186808517232</v>
+        <v>0.05357910431180102</v>
       </c>
       <c r="E6">
-        <v>0.1221240240951449</v>
+        <v>0.04425506428643899</v>
       </c>
       <c r="F6">
-        <v>1.682246121894778</v>
+        <v>0.8068788672582627</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1505844361340536</v>
+        <v>0.05413733771536222</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3032118482649935</v>
+        <v>0.2200722714144518</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.480323997060601</v>
+        <v>0.8727955595198438</v>
       </c>
       <c r="O6">
-        <v>4.352888466052889</v>
+        <v>2.112279935367496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.452088065832015</v>
+        <v>2.14761192727417</v>
       </c>
       <c r="C7">
-        <v>0.1252019686959045</v>
+        <v>0.2723339618974876</v>
       </c>
       <c r="D7">
-        <v>0.1240608079437635</v>
+        <v>0.05469084975082694</v>
       </c>
       <c r="E7">
-        <v>0.1219296810094086</v>
+        <v>0.04427193453174105</v>
       </c>
       <c r="F7">
-        <v>1.680793961639083</v>
+        <v>0.8172356998999319</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1501853649558669</v>
+        <v>0.05360456213274212</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3050948478846749</v>
+        <v>0.2284714772324179</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.476113392675941</v>
+        <v>0.8636864007298897</v>
       </c>
       <c r="O7">
-        <v>4.348133408754222</v>
+        <v>2.137591097012546</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.573706052430623</v>
+        <v>2.586825796994958</v>
       </c>
       <c r="C8">
-        <v>0.1391865047557275</v>
+        <v>0.3147081555779749</v>
       </c>
       <c r="D8">
-        <v>0.1247636585373897</v>
+        <v>0.05968505918808376</v>
       </c>
       <c r="E8">
-        <v>0.1211555348524183</v>
+        <v>0.04445765736204521</v>
       </c>
       <c r="F8">
-        <v>1.676363514665837</v>
+        <v>0.8664764507868128</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1485319842800124</v>
+        <v>0.05140886942229983</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.313655486449619</v>
+        <v>0.2659027698816914</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.458743455477588</v>
+        <v>0.8258993496579166</v>
       </c>
       <c r="O8">
-        <v>4.332571142067025</v>
+        <v>2.259405718649873</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.81560421863685</v>
+        <v>3.456783573323378</v>
       </c>
       <c r="C9">
-        <v>0.1662299329407801</v>
+        <v>0.3976514701119527</v>
       </c>
       <c r="D9">
-        <v>0.1264115142573132</v>
+        <v>0.0698282018906724</v>
       </c>
       <c r="E9">
-        <v>0.1199362711098306</v>
+        <v>0.04524524302774324</v>
       </c>
       <c r="F9">
-        <v>1.674783178183162</v>
+        <v>0.9772849686897871</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1456758152411375</v>
+        <v>0.04768847085336603</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3313372079275467</v>
+        <v>0.3408873417925804</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.429025804156133</v>
+        <v>0.7609957253821875</v>
       </c>
       <c r="O9">
-        <v>4.321553114353975</v>
+        <v>2.539177796200306</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.995345918229589</v>
+        <v>4.103807567936428</v>
       </c>
       <c r="C10">
-        <v>0.1858616385541723</v>
+        <v>0.4586693171426361</v>
       </c>
       <c r="D10">
-        <v>0.1277846476447593</v>
+        <v>0.07752709229981036</v>
       </c>
       <c r="E10">
-        <v>0.1192217142890968</v>
+        <v>0.04610569376344742</v>
       </c>
       <c r="F10">
-        <v>1.67795867846921</v>
+        <v>1.068941232088633</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1438120303164716</v>
+        <v>0.04533892598653466</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3448670973745322</v>
+        <v>0.3972160663599027</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.409835277288416</v>
+        <v>0.7194571656636768</v>
       </c>
       <c r="O10">
-        <v>4.325369774305301</v>
+        <v>2.774256347320744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.077542605579595</v>
+        <v>4.400489712216029</v>
       </c>
       <c r="C11">
-        <v>0.1947401106862117</v>
+        <v>0.4864875108531237</v>
       </c>
       <c r="D11">
-        <v>0.1284442136094555</v>
+        <v>0.08109118775508506</v>
       </c>
       <c r="E11">
-        <v>0.1189358017912561</v>
+        <v>0.0465639522008825</v>
       </c>
       <c r="F11">
-        <v>1.680345898222086</v>
+        <v>1.11323605716386</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1430149403843348</v>
+        <v>0.04435980208620371</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3511380776938609</v>
+        <v>0.423176057210739</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.401677819984691</v>
+        <v>0.7020237340369135</v>
       </c>
       <c r="O11">
-        <v>4.329698269913195</v>
+        <v>2.888714277279831</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.108729037880778</v>
+        <v>4.513228540725152</v>
       </c>
       <c r="C12">
-        <v>0.1980945399566281</v>
+        <v>0.4970340420313164</v>
       </c>
       <c r="D12">
-        <v>0.1286989594349777</v>
+        <v>0.08245042216830001</v>
       </c>
       <c r="E12">
-        <v>0.118833146769008</v>
+        <v>0.04674759478568546</v>
       </c>
       <c r="F12">
-        <v>1.681385461308736</v>
+        <v>1.130416772149445</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1427203910824453</v>
+        <v>0.04400251041309211</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3535293053748632</v>
+        <v>0.4330605548946238</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.398671050879187</v>
+        <v>0.6956441979073631</v>
       </c>
       <c r="O12">
-        <v>4.331710474109286</v>
+        <v>2.933237088842588</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.102009825291248</v>
+        <v>4.488929884656613</v>
       </c>
       <c r="C13">
-        <v>0.1973724466967894</v>
+        <v>0.4947620456216271</v>
       </c>
       <c r="D13">
-        <v>0.1286438743862419</v>
+        <v>0.08215724857335971</v>
       </c>
       <c r="E13">
-        <v>0.1188550059240416</v>
+        <v>0.04670758610295245</v>
       </c>
       <c r="F13">
-        <v>1.681155542749977</v>
+        <v>1.126697927896913</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.142783503372792</v>
+        <v>0.04407885026315306</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3530135784903052</v>
+        <v>0.4309292531534084</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.399314953254731</v>
+        <v>0.6970080690870617</v>
       </c>
       <c r="O13">
-        <v>4.331260511081894</v>
+        <v>2.923594166118505</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.080107132670037</v>
+        <v>4.409756626589285</v>
       </c>
       <c r="C14">
-        <v>0.1950162359712238</v>
+        <v>0.4873549101206436</v>
       </c>
       <c r="D14">
-        <v>0.1284650720677547</v>
+        <v>0.08120281642850102</v>
       </c>
       <c r="E14">
-        <v>0.1189272438760582</v>
+        <v>0.04657885498385639</v>
       </c>
       <c r="F14">
-        <v>1.680428706466515</v>
+        <v>1.114641163390502</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.14299056154689</v>
+        <v>0.04433013381535211</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3513344747983211</v>
+        <v>0.4239881438614361</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.401428802356286</v>
+        <v>0.701494363421105</v>
       </c>
       <c r="O14">
-        <v>4.329856335853435</v>
+        <v>2.892352952393452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.066698907831267</v>
+        <v>4.361313417975509</v>
       </c>
       <c r="C15">
-        <v>0.1935719870141384</v>
+        <v>0.4828195520722147</v>
       </c>
       <c r="D15">
-        <v>0.1283561981993415</v>
+        <v>0.08061946953715449</v>
       </c>
       <c r="E15">
-        <v>0.1189722223543992</v>
+        <v>0.04650133548761204</v>
       </c>
       <c r="F15">
-        <v>1.680001154694551</v>
+        <v>1.10731011307287</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1431183399961871</v>
+        <v>0.0444858259070422</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3503081249893256</v>
+        <v>0.4197437257681855</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.402734310861781</v>
+        <v>0.7042716402141522</v>
       </c>
       <c r="O15">
-        <v>4.329044836017545</v>
+        <v>2.87337354877792</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.989982705617763</v>
+        <v>4.084470463148875</v>
       </c>
       <c r="C16">
-        <v>0.1852803472305595</v>
+        <v>0.4568528606521909</v>
       </c>
       <c r="D16">
-        <v>0.1277422428104629</v>
+        <v>0.07729547291739181</v>
       </c>
       <c r="E16">
-        <v>0.1192411857264855</v>
+        <v>0.04607713229616373</v>
       </c>
       <c r="F16">
-        <v>1.677821638668462</v>
+        <v>1.066101573234562</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1438651427259945</v>
+        <v>0.0454047678869518</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3444595978459404</v>
+        <v>0.39552675606717</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.410379902070765</v>
+        <v>0.7206269033169406</v>
       </c>
       <c r="O16">
-        <v>4.325139088433218</v>
+        <v>2.766935838398808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.943029061000118</v>
+        <v>3.915274745674651</v>
       </c>
       <c r="C17">
-        <v>0.180180235888912</v>
+        <v>0.4409412090009823</v>
       </c>
       <c r="D17">
-        <v>0.127374517268521</v>
+        <v>0.07527262507169041</v>
       </c>
       <c r="E17">
-        <v>0.1194162008901056</v>
+        <v>0.04583436009529507</v>
       </c>
       <c r="F17">
-        <v>1.676726030552118</v>
+        <v>1.041510331320197</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1443362764878291</v>
+        <v>0.04599188475453708</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.340901354057479</v>
+        <v>0.3807603657597696</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.415216810345854</v>
+        <v>0.731043082903291</v>
       </c>
       <c r="O17">
-        <v>4.323407218344357</v>
+        <v>2.703633634682774</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.91606326184592</v>
+        <v>3.818175327059066</v>
       </c>
       <c r="C18">
-        <v>0.1772418936918996</v>
+        <v>0.4317947408313501</v>
       </c>
       <c r="D18">
-        <v>0.1271663004906998</v>
+        <v>0.07411491157479588</v>
       </c>
       <c r="E18">
-        <v>0.1195205501910994</v>
+        <v>0.0457009829402466</v>
       </c>
       <c r="F18">
-        <v>1.67618459295997</v>
+        <v>1.027608676981657</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1446120379054854</v>
+        <v>0.04633798424448443</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3388656900117866</v>
+        <v>0.372298364312968</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.418052751354878</v>
+        <v>0.7371711123500404</v>
       </c>
       <c r="O18">
-        <v>4.322655070123517</v>
+        <v>2.667925312045782</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.906940146557019</v>
+        <v>3.785334905690718</v>
       </c>
       <c r="C19">
-        <v>0.1762461861647182</v>
+        <v>0.4286987419087609</v>
       </c>
       <c r="D19">
-        <v>0.127096367987491</v>
+        <v>0.07372390115120453</v>
       </c>
       <c r="E19">
-        <v>0.1195565144640014</v>
+        <v>0.04565688405141266</v>
       </c>
       <c r="F19">
-        <v>1.676016509872767</v>
+        <v>1.022942502504137</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1447062267853045</v>
+        <v>0.0464565940965791</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3381783336393909</v>
+        <v>0.3694384734369862</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.41902220703949</v>
+        <v>0.7392691278497381</v>
       </c>
       <c r="O19">
-        <v>4.322442299007633</v>
+        <v>2.655952669878417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.948023157047317</v>
+        <v>3.933263031570107</v>
       </c>
       <c r="C20">
-        <v>0.1807236590567527</v>
+        <v>0.4426344377045268</v>
       </c>
       <c r="D20">
-        <v>0.1274133221408107</v>
+        <v>0.07548735809358931</v>
       </c>
       <c r="E20">
-        <v>0.1193971889301633</v>
+        <v>0.04585955231989836</v>
       </c>
       <c r="F20">
-        <v>1.6768334768242</v>
+        <v>1.044102771437167</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1442856290688219</v>
+        <v>0.04592851113806873</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3412790037225335</v>
+        <v>0.3823290003594622</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.414696337119743</v>
+        <v>0.7299200094875076</v>
       </c>
       <c r="O20">
-        <v>4.323566325699545</v>
+        <v>2.710298975159958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.086538860493818</v>
+        <v>4.433000646541245</v>
       </c>
       <c r="C21">
-        <v>0.1957085212566199</v>
+        <v>0.489530198649561</v>
       </c>
       <c r="D21">
-        <v>0.1285174557291953</v>
+        <v>0.08148289022339128</v>
       </c>
       <c r="E21">
-        <v>0.1189058735988304</v>
+        <v>0.04661638790002876</v>
       </c>
       <c r="F21">
-        <v>1.680638516279686</v>
+        <v>1.118171196924877</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1429295457132493</v>
+        <v>0.04425595501732893</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3518272205487989</v>
+        <v>0.4260254021198904</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.400805680704742</v>
+        <v>0.7001705033477208</v>
       </c>
       <c r="O21">
-        <v>4.330258647778152</v>
+        <v>2.901496402212132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.177417753308873</v>
+        <v>4.76191979065544</v>
       </c>
       <c r="C22">
-        <v>0.2054572969294952</v>
+        <v>0.5202534079987799</v>
       </c>
       <c r="D22">
-        <v>0.1292680947175313</v>
+        <v>0.0854575708498686</v>
       </c>
       <c r="E22">
-        <v>0.11861748550794</v>
+        <v>0.04717020981046538</v>
       </c>
       <c r="F22">
-        <v>1.683915572558959</v>
+        <v>1.168970167226433</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1420857632085628</v>
+        <v>0.0432417226391788</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3588174439680643</v>
+        <v>0.4549013447784915</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.392206931780059</v>
+        <v>0.6820282998024751</v>
       </c>
       <c r="O22">
-        <v>4.336807314771505</v>
+        <v>3.033384801009078</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.12888242950271</v>
+        <v>4.586138870835271</v>
       </c>
       <c r="C23">
-        <v>0.2002583361715438</v>
+        <v>0.503847782983371</v>
       </c>
       <c r="D23">
-        <v>0.1288648217406489</v>
+        <v>0.08333081717098878</v>
       </c>
       <c r="E23">
-        <v>0.1187684151412896</v>
+        <v>0.04686903502519613</v>
       </c>
       <c r="F23">
-        <v>1.682094231954196</v>
+        <v>1.141627331271465</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1425322197324874</v>
+        <v>0.04377561661913276</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3550778668584798</v>
+        <v>0.4394586172828241</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.396752370912438</v>
+        <v>0.6915879874598474</v>
       </c>
       <c r="O23">
-        <v>4.333113059959146</v>
+        <v>2.962324746500371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.945765237391299</v>
+        <v>3.92512999128877</v>
       </c>
       <c r="C24">
-        <v>0.180477996806701</v>
+        <v>0.44186892506562</v>
       </c>
       <c r="D24">
-        <v>0.1273957685084497</v>
+        <v>0.07539026099784252</v>
       </c>
       <c r="E24">
-        <v>0.1194057726154192</v>
+        <v>0.04584814365391843</v>
       </c>
       <c r="F24">
-        <v>1.676784624871615</v>
+        <v>1.042929996110018</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1443085115019311</v>
+        <v>0.04595713573690752</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3411082370938061</v>
+        <v>0.3816197357613049</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.414931471307661</v>
+        <v>0.7304273169476545</v>
       </c>
       <c r="O24">
-        <v>4.323493634706921</v>
+        <v>2.707283448618909</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.74980567256415</v>
+        <v>3.220254105858828</v>
       </c>
       <c r="C25">
-        <v>0.158955224198877</v>
+        <v>0.3752124779402948</v>
       </c>
       <c r="D25">
-        <v>0.1259370616267645</v>
+        <v>0.06704346077266621</v>
       </c>
       <c r="E25">
-        <v>0.1202342195758757</v>
+        <v>0.04498449536304427</v>
       </c>
       <c r="F25">
-        <v>1.674449407329192</v>
+        <v>0.9456283918023729</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1464072261233316</v>
+        <v>0.04862958825611052</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3264587194022539</v>
+        <v>0.3204056328627871</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.436600684554776</v>
+        <v>0.777515851599567</v>
       </c>
       <c r="O25">
-        <v>4.322443730337682</v>
+        <v>2.458658172976897</v>
       </c>
     </row>
   </sheetData>
